--- a/data/trans_bre/P28A_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28A_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>14,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>-5,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>-7,21%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 14,01</t>
+          <t>-14,02; 14,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 15,94</t>
+          <t>3,58; 24,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 9,24</t>
+          <t>-14,54; 6,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 14,7</t>
+          <t>-13,1; 5,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 11,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 27,96</t>
+          <t>-20,55; 27,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 92,75</t>
+          <t>13,72; 217,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 42,71</t>
+          <t>-40,73; 33,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 107,19</t>
+          <t>-50,95; 39,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 59,7</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>-9,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 7,02</t>
+          <t>-8,76; 9,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 6,67</t>
+          <t>-7,16; 6,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 9,81</t>
+          <t>-3,52; 9,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 4,12</t>
+          <t>-8,16; 2,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 14,99</t>
+          <t>-14,69; 20,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 25,8</t>
+          <t>-22,12; 27,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 38,84</t>
+          <t>-12,02; 40,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 22,02</t>
+          <t>-31,97; 15,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 44,84</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,98%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>-6,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 2,42</t>
+          <t>-9,02; 10,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 7,68</t>
+          <t>-10,19; 6,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 11,26</t>
+          <t>-1,74; 11,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 7,14</t>
+          <t>-2,72; 7,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 10,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 4,29</t>
+          <t>-14,38; 19,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 30,28</t>
+          <t>-28,43; 24,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 40,32</t>
+          <t>-5,29; 46,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 43,64</t>
+          <t>-13,07; 44,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 50,07</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>-1,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>-2,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,58 +1054,186 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 4,87</t>
+          <t>-6,36; 4,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 5,35</t>
+          <t>-7,11; 5,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 7,33</t>
+          <t>-8,07; 7,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 7,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 9,44</t>
+          <t>-11,74; 9,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 20,77</t>
+          <t>-21,48; 24,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 26,43</t>
+          <t>-25,13; 34,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 27,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 31,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,05%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,78%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-3,92%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 4,13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 4,58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 5,65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 2,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 7,88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-10,46; 18,48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,8; 22,8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-19,7; 15,71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_bre/P28A_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28A_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,16</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,73%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>85,83%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-5,97%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-7,21%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-0.8688554459922337</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>17.9498200392186</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.8511133892865341</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.4955395907615318</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>-0.01377025586362281</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.040465395253714</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.03046393173972656</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.0268132102744663</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,02; 14,22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 24,56</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,54; 6,61</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,1; 5,08</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-20,55; 27,12</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>13,72; 217,68</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-40,73; 33,32</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-50,95; 39,84</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.24747082100693</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>6.496248035671864</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.057042424203976</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-11.29117621851873</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.2063215865690958</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.2707307231972311</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2701686599757038</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4329959281506705</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.25299927429462</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>30.05729113852686</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.52275767461621</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.963494721840992</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>0.2386020435602678</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.674640692936476</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4628172593334928</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.4094493909411183</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,04</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>11,65%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-9,48%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,76; 9,47</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,16; 6,56</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 9,36</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; 2,72</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-14,69; 20,07</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-22,12; 27,46</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-12,02; 40,69</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-31,97; 15,34</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>1.365767458467204</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3811676839936051</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.445481079127356</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.457224231930732</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>0.02537049107696306</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.0129793175875034</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1539838475282506</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.065239616204172</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,66</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,15%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-6,23%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>16,08%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,55%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.031135871149436</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.874183504769714</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.638591509979232</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.500120427734827</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.1333411401249158</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2032131306342414</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.07477889844273276</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2922107860914852</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; 10,53</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,19; 6,81</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 11,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 7,1</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-14,38; 19,64</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-28,43; 24,75</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 46,01</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-13,07; 44,31</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.19444188940929</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.955864046626047</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.28446149993042</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.853902820005219</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>0.2090729138872667</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.3111485881194137</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4673978980339465</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1977388333845554</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +855,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,51%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-2,02%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.634679497330671</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.8470769377149912</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6.069078765377395</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.141944411313437</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>0.02813220055732231</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.02799045910375376</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2012681803047714</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1083731757360534</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 4,73</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,11; 5,89</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,07; 7,58</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-11,74; 9,91</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-21,48; 24,04</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-25,13; 34,08</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.522386514490471</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.901808158674799</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.6384093862610074</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.306828278783204</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.1339489150453979</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2629301194975898</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.01910719379640227</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1504078597558726</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.90020409274674</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.11595132982027</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.56323202787221</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.554923279125927</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.2103590346701065</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3228353068657822</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.4819228282987575</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.4433693930315635</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,05%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,96%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,78%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-3,92%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 4,13</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,23; 4,58</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 5,65</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,48; 2,64</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-7,34; 7,88</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-10,46; 18,48</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,8; 22,8</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-19,7; 15,71</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.185488866474882</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.833538821134379</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.222118469934971</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2223715419512495</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>0.02085298635935247</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1022188534860295</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1449881264317043</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.01072784675304582</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.964102503124891</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.602568480991428</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3428927578110247</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.980535701193518</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.07962447094429327</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08139411221486846</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.00785832611109805</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1714233772684221</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.217397023847363</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.958832343923563</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.449261179207573</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.337735848786322</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>0.1331205836495775</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3218757770049666</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3268675000251798</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1831299528782239</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
